--- a/salary.xlsx
+++ b/salary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\PythonWithOpenpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="10575" tabRatio="935" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="10580" tabRatio="935" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="00000" sheetId="27" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>奖金分摊发放明细</t>
   </si>
@@ -85,437 +85,11 @@
     <t>实发工资</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>党笑旋</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>庄平霞</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>班维娟</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>谷寒凝</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴连英</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>钱嘉木</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>叶康乐</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>廖昕妍</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>江</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冽</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>许</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芃</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>娜</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卢鸿羽</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杜星剑</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>石</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黎怀萍</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>计</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>公积金</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>工</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>应发工资合计</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个人所得税</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公积金</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实发工资</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="楷体_GB2312"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吕乐章</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>工    资    表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应  发  金  额</t>
@@ -525,115 +99,143 @@
   </si>
   <si>
     <t>实发工资</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>党笑旋</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>庄平霞</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>班维娟</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>谷寒凝</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>吴连英</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>江    冽</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>许    芃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>钱嘉木</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>卢鸿羽</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>叶康乐</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>杜星剑</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>吕乐章</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>石    秋</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>杨    娜</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>廖昕妍</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>黎怀萍</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>合  计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基本工资</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>岗位津贴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>综合津贴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>考核奖金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>劳动保险金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>综合津贴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>考核奖金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>劳动保险金</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>个人所得税</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>应发工资合计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>应发工资合计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人所得税</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>实发工资</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>班维娟</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>江    冽</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶康乐</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -645,7 +247,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -687,13 +289,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -727,70 +322,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1187,20 +718,20 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,164 +835,144 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="30" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="21" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1781,9 +1292,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1798,21 +1309,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="46.5" customHeight="1">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
@@ -1823,7 +1334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>4</v>
       </c>
@@ -1833,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="4" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>5</v>
       </c>
@@ -1843,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="5" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="6" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1">
+    <row r="7" spans="1:3" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="31.5" customHeight="1">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="37.5" customHeight="1">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>9</v>
       </c>
@@ -1899,7 +1410,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1909,698 +1420,731 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="69"/>
-    </row>
-    <row r="2" spans="1:13" ht="20.25">
-      <c r="A2" s="70">
+    <row r="1" spans="1:13" ht="20" x14ac:dyDescent="0.45">
+      <c r="A1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="57">
         <v>43617</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="72"/>
-    </row>
-    <row r="3" spans="1:13" ht="18">
-      <c r="A3" s="73" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="58" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="71"/>
+      <c r="F4" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="65" t="s">
+      <c r="H4" s="74" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="73"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="65"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="73"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-    </row>
-    <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="50">
+      <c r="I4" s="68"/>
+      <c r="J4" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="69"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
         <v>1</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59">
+      <c r="B6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51">
         <v>45000</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56">
+      <c r="E6" s="52"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41">
         <f t="shared" ref="I6:I21" si="0">SUM(D6:H6)</f>
         <v>45000</v>
       </c>
-      <c r="J6" s="52">
+      <c r="J6" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="40">
         <v>1032.4000000000001</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="37">
         <v>1645</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="38">
         <f>I6-SUM(J6:L6)</f>
         <v>39736</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18">
-      <c r="A7" s="50">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
         <v>2</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59">
+      <c r="B7" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51">
         <v>30000</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56">
+      <c r="E7" s="52"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J7" s="52">
+      <c r="J7" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="40">
         <v>1673.4</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="37">
         <v>1645</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="38">
         <f t="shared" ref="M7:M21" si="1">I7-SUM(J7:L7)</f>
         <v>24095</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18">
-      <c r="A8" s="50">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
         <v>3</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59">
+      <c r="B8" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51">
         <v>30000</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56">
+      <c r="E8" s="52"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="40">
         <v>813.2</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="40">
         <v>3540.76</v>
       </c>
-      <c r="M8" s="53">
+      <c r="M8" s="38">
         <f t="shared" si="1"/>
         <v>23059.439999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18">
-      <c r="A9" s="50">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
         <v>4</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59">
+      <c r="B9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51">
         <v>20000</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56">
+      <c r="E9" s="52"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="40">
         <v>635.25</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="40">
         <v>1120.2</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="40">
         <v>2990.51</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="38">
         <f t="shared" si="1"/>
         <v>15254.04</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18">
-      <c r="A10" s="50">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
         <v>5</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59">
+      <c r="B10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51">
         <v>22000</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56">
+      <c r="E10" s="52"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="40">
         <v>818.1</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="37">
         <v>1645</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="38">
         <f t="shared" si="1"/>
         <v>16950.3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18">
-      <c r="A11" s="50">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
         <v>6</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59">
+      <c r="B11" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51">
         <v>18000</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56">
+      <c r="E11" s="52"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J11" s="52">
+      <c r="J11" s="37">
         <v>2073.8000000000002</v>
       </c>
-      <c r="K11" s="55">
+      <c r="K11" s="40">
         <v>1029.3</v>
       </c>
-      <c r="L11" s="52">
+      <c r="L11" s="37">
         <v>1383</v>
       </c>
-      <c r="M11" s="53">
+      <c r="M11" s="38">
         <f t="shared" si="1"/>
         <v>13513.9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18">
-      <c r="A12" s="50">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>7</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59">
+      <c r="B12" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51">
         <v>18000</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56">
+      <c r="E12" s="52"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J12" s="52">
+      <c r="J12" s="37">
         <v>2423.9</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="40">
         <v>475.4</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="37">
         <v>1616</v>
       </c>
-      <c r="M12" s="53">
+      <c r="M12" s="38">
         <f t="shared" si="1"/>
         <v>13484.7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18">
-      <c r="A13" s="50">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
         <v>8</v>
       </c>
-      <c r="B13" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59">
+      <c r="B13" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51">
         <v>28000</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56">
+      <c r="E13" s="52"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="40">
         <v>1818.3</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="37">
         <v>1645</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="38">
         <f t="shared" si="1"/>
         <v>21950.1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18">
-      <c r="A14" s="50">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
         <v>9</v>
       </c>
-      <c r="B14" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="59">
+      <c r="B14" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51">
         <v>22000</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56">
+      <c r="E14" s="52"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="40">
         <v>551.25</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="40">
         <v>880.3</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="40">
         <v>3540.76</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="38">
         <f t="shared" si="1"/>
         <v>17027.689999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18">
-      <c r="A15" s="50">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
         <v>10</v>
       </c>
-      <c r="B15" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="59">
+      <c r="B15" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51">
         <v>18000</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56">
+      <c r="E15" s="52"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="37">
         <v>2502.6</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="40">
         <v>1920</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="37">
         <v>1645</v>
       </c>
-      <c r="M15" s="53">
+      <c r="M15" s="38">
         <f t="shared" si="1"/>
         <v>11932.4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18">
-      <c r="A16" s="50">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
         <v>11</v>
       </c>
-      <c r="B16" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="59">
+      <c r="B16" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51">
         <v>28000</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="56">
+      <c r="E16" s="52"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="41">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="40">
         <v>2200.1</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="37">
         <v>1645</v>
       </c>
-      <c r="M16" s="53">
+      <c r="M16" s="38">
         <f t="shared" si="1"/>
         <v>21568.3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18">
-      <c r="A17" s="50">
+    <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
         <v>12</v>
       </c>
-      <c r="B17" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="59">
+      <c r="B17" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51">
         <v>22000</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="56">
+      <c r="E17" s="52"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="41">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K17" s="55">
+      <c r="K17" s="40">
         <v>347.4</v>
       </c>
-      <c r="L17" s="52">
+      <c r="L17" s="37">
         <v>1645</v>
       </c>
-      <c r="M17" s="53">
+      <c r="M17" s="38">
         <f t="shared" si="1"/>
         <v>17421</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18">
-      <c r="A18" s="50">
+    <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
         <v>13</v>
       </c>
-      <c r="B18" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="59">
+      <c r="B18" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51">
         <v>18000</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="56">
+      <c r="E18" s="52"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="41">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="37">
         <v>2336.3000000000002</v>
       </c>
-      <c r="K18" s="55">
+      <c r="K18" s="40">
         <v>1036.2</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="37">
         <v>1558</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="38">
         <f t="shared" si="1"/>
         <v>13069.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18">
-      <c r="A19" s="50">
+    <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
         <v>14</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="59">
+      <c r="B19" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51">
         <v>28000</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="56">
+      <c r="E19" s="52"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="41">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="37">
         <v>2586.6</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="40">
         <v>1980.8</v>
       </c>
-      <c r="L19" s="52">
+      <c r="L19" s="37">
         <v>1645</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="38">
         <f t="shared" si="1"/>
         <v>21787.599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18">
-      <c r="A20" s="50">
+    <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
         <v>15</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="59">
+      <c r="B20" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51">
         <v>18000</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="56">
+      <c r="E20" s="52"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="41">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="37">
         <v>2450.1</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="40">
         <v>2020.2</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="37">
         <v>1633</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="38">
         <f t="shared" si="1"/>
         <v>11896.7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18">
-      <c r="A21" s="50">
+    <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
         <v>16</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="59">
+      <c r="B21" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51">
         <v>17000</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="56">
+      <c r="E21" s="52"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="41">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="37">
         <v>2318.9</v>
       </c>
-      <c r="K21" s="55">
+      <c r="K21" s="40">
         <v>713.12</v>
       </c>
-      <c r="L21" s="52">
+      <c r="L21" s="37">
         <v>1546</v>
       </c>
-      <c r="M21" s="53">
+      <c r="M21" s="38">
         <f t="shared" si="1"/>
         <v>12421.98</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18">
-      <c r="A22" s="55"/>
-      <c r="B22" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59">
+    <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="40"/>
+      <c r="B22" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="51">
         <f t="shared" ref="D22:M22" si="2">SUM(D6:D21)</f>
         <v>382000</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="56">
+      <c r="E22" s="52"/>
+      <c r="F22" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="41">
         <f t="shared" si="2"/>
         <v>382000</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="41">
         <f t="shared" si="2"/>
         <v>35984.899999999994</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="41">
         <f t="shared" si="2"/>
         <v>19878.419999999998</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="41">
         <f t="shared" si="2"/>
         <v>30968.03</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="41">
         <f t="shared" si="2"/>
         <v>295168.65000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A1:M1"/>
@@ -2617,41 +2161,8 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2660,622 +2171,623 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B32" sqref="B31:B32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.9140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.83203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.9140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.58203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.9140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="85">
+    <row r="1" spans="1:11" ht="20" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.4">
+      <c r="A2" s="79">
         <v>43617</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-    </row>
-    <row r="3" spans="1:11" ht="31.5">
-      <c r="A3" s="49" t="s">
-        <v>19</v>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" x14ac:dyDescent="0.4">
+      <c r="A3" s="47" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="39">
+      <c r="E3" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="45">
+      <c r="B4" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="81">
         <v>45000</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="36"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42">
         <f t="shared" ref="G4:G19" si="0">SUM(C4:F4)</f>
         <v>45000</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="44">
         <v>1032.4000000000001</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="37">
         <v>1645</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="38">
         <f>G4-SUM(H4:J4)</f>
         <v>39736</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="39">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="35">
         <v>2</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="45">
+      <c r="B5" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="81">
         <v>30000</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="36"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="44">
         <v>1673.4</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="37">
         <v>1645</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="38">
         <f t="shared" ref="K5:K19" si="1">G5-SUM(H5:J5)</f>
         <v>24095</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="39">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="35">
         <v>3</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="45">
+      <c r="B6" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="81">
         <v>30000</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="44">
         <v>813.2</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="44">
         <v>3540.76</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="38">
         <f t="shared" si="1"/>
         <v>23059.439999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="39">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="35">
         <v>4</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="45">
+      <c r="B7" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="81">
         <v>20000</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="44">
         <v>635.25</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="44">
         <v>1120.2</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="44">
         <v>2990.51</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="38">
         <f t="shared" si="1"/>
         <v>15254.04</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="39">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="35">
         <v>5</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="B8" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="81">
         <v>22000</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="44">
         <v>818.1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="37">
         <v>1645</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="38">
         <f t="shared" si="1"/>
         <v>16950.3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="39">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="35">
         <v>6</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="B9" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="81">
         <v>18000</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="37">
         <v>2073.8000000000002</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="44">
         <v>1029.3</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="37">
         <v>1383</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="38">
         <f t="shared" si="1"/>
         <v>13513.9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="39">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="81">
         <v>18000</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="37">
         <v>2423.9</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="44">
         <v>475.4</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="37">
         <v>1616</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="38">
         <f t="shared" si="1"/>
         <v>13484.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
-      <c r="A11" s="39">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="35">
         <v>8</v>
       </c>
-      <c r="B11" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="45">
+      <c r="B11" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="81">
         <v>28000</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="44">
         <v>1818.3</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="37">
         <v>1645</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="38">
         <f t="shared" si="1"/>
         <v>21950.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
-      <c r="A12" s="39">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="35">
         <v>9</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="81">
         <v>22000</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="44">
         <v>551.25</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="44">
         <v>880.3</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="44">
         <v>3540.76</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="38">
         <f t="shared" si="1"/>
         <v>17027.689999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="39">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="35">
         <v>10</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="45">
+      <c r="B13" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="81">
         <v>18000</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="37">
         <v>2502.6</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="44">
         <v>1920</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="37">
         <v>1645</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="38">
         <f t="shared" si="1"/>
         <v>11932.4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="39">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="35">
         <v>11</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="45">
+      <c r="B14" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="81">
         <v>28000</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="41">
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="42">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="44">
         <v>2200.1</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="37">
         <v>1645</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="38">
         <f t="shared" si="1"/>
         <v>21568.3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="39">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="35">
         <v>12</v>
       </c>
-      <c r="B15" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="45">
+      <c r="B15" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="81">
         <v>22000</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="41">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42">
         <f t="shared" si="0"/>
         <v>22000</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="44">
         <v>347.4</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="37">
         <v>1645</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="38">
         <f t="shared" si="1"/>
         <v>17421</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="39">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="35">
         <v>13</v>
       </c>
-      <c r="B16" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="45">
+      <c r="B16" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="81">
         <v>18000</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="41">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="42">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="37">
         <v>2336.3000000000002</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="44">
         <v>1036.2</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="37">
         <v>1558</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="38">
         <f t="shared" si="1"/>
         <v>13069.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="39">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="35">
         <v>14</v>
       </c>
-      <c r="B17" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="45">
+      <c r="B17" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="81">
         <v>28000</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="41">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42">
         <f t="shared" si="0"/>
         <v>28000</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="37">
         <v>2586.6</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="44">
         <v>1980.8</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="37">
         <v>1645</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="38">
         <f t="shared" si="1"/>
         <v>21787.599999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="39">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="35">
         <v>15</v>
       </c>
-      <c r="B18" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="45">
+      <c r="B18" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="81">
         <v>18000</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="41">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="42">
         <f t="shared" si="0"/>
         <v>18000</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="37">
         <v>2450.1</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="44">
         <v>2020.2</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="37">
         <v>1633</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="38">
         <f t="shared" si="1"/>
         <v>11896.7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="39">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="35">
         <v>16</v>
       </c>
-      <c r="B19" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="45">
+      <c r="B19" s="80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="81">
         <v>17000</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="41">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="42">
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="37">
         <v>2318.9</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="44">
         <v>713.12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="37">
         <v>1546</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="38">
         <f t="shared" si="1"/>
         <v>12421.98</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="44"/>
+      <c r="B20" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="81">
         <f t="shared" ref="C20:K20" si="2">SUM(C4:C19)</f>
         <v>382000</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="42">
         <f t="shared" si="2"/>
         <v>382000</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="42">
         <f t="shared" si="2"/>
         <v>35984.899999999994</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="42">
         <f t="shared" si="2"/>
         <v>19878.419999999998</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="42">
         <f t="shared" si="2"/>
         <v>30968.03</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="42">
         <f t="shared" si="2"/>
         <v>295168.65000000002</v>
       </c>
@@ -3285,7 +2797,7 @@
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3298,27 +2810,27 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="1" max="1" width="6.08203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -3327,16 +2839,16 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="22.5">
-      <c r="A2" s="87">
+    <row r="2" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="77">
         <v>43862</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -3345,7 +2857,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -3368,7 +2880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="29.1" customHeight="1">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="29.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3378,7 +2890,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="29.1" customHeight="1">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="29.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -3388,7 +2900,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="29.1" customHeight="1">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="29.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -3398,7 +2910,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="29.1" customHeight="1">
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="29.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>13</v>
       </c>
@@ -3419,23 +2931,23 @@
       </c>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:14" s="3" customFormat="1"/>
-    <row r="9" spans="1:14" s="3" customFormat="1"/>
-    <row r="10" spans="1:14" s="3" customFormat="1"/>
-    <row r="11" spans="1:14" s="3" customFormat="1"/>
-    <row r="12" spans="1:14" s="3" customFormat="1"/>
-    <row r="13" spans="1:14" s="3" customFormat="1"/>
-    <row r="14" spans="1:14" s="3" customFormat="1"/>
-    <row r="15" spans="1:14" s="3" customFormat="1"/>
-    <row r="16" spans="1:14" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
+    <row r="8" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
